--- a/Brute_Force_Plaintext.xlsx
+++ b/Brute_Force_Plaintext.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3. Semester\Unterlagen\Sicherer Programmierung\chess_server_strong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC02A6CF-288A-4118-BF6D-8941D4436CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A123A2-0060-4C94-A9DE-D22A803FADA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWSS Score" sheetId="1" r:id="rId1"/>
@@ -1273,7 +1273,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -1352,8 +1352,8 @@
       </c>
       <c r="G7" s="69" t="str">
         <f>CONCATENATE("(", C7,":",D7,",",E7,"/",C8,":",D8,",",E8,"/",C9,":",D9,",",E9,"/",C10,":",D10,",",E10,"/",C11,":",D11,",",E11,"/",CHAR(10),C12,":",D12,",",E12,"/",C13,":",D13,",",E13,"/",C14,":",D14,",",E14,"/",C15,":",D15,",",E15,"/",C16,":",D16,",",E16,"/",C17,":",D17,",",E17,"/",CHAR(10),C18,":",D18,",",E18,"/",C19,":",D19,",",E19,"/",C20,":",D20,",",E20,"/",C21,":",D21,",",E21,"/",C22,":",D22,",",E22,")")</f>
-        <v>(TI:h,0,9/AP:RU,0,7/AL:A,1/IC:N,1/FC:D,0,8/
-RP:n,1/RL:S,0,9/AV:V,0,8/AS:N,1/ IN:A,1/SC:A,1/
+        <v>(TI:h,0,9/AP:RU,0,7/AL:A,1/IC:N,1/FC:T,1/
+RP:n,1/RL:N,0,7/AV:V,0,8/AS:N,1/ IN:A,1/SC:A,1/
 BI:M,0,6/DI:h,1/EX:H,1/EC:L,0,9/P:W,1)</v>
       </c>
       <c r="H7" s="69"/>
@@ -1437,11 +1437,11 @@
       </c>
       <c r="D11" s="46" t="str">
         <f>'Base Finding'!L20</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="E11" s="47">
         <f>'Base Finding'!L21</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1483,11 +1483,11 @@
       </c>
       <c r="D13" s="46" t="str">
         <f>'Attack Surface'!L8</f>
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="E13" s="47">
         <f>'Attack Surface'!L9</f>
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="G13" s="57" t="s">
         <v>53</v>
@@ -1495,7 +1495,7 @@
       <c r="H13" s="53"/>
       <c r="I13" s="2">
         <f>IF(E7=0, 0, (10*E7 + 5*(E8+E9) + 5*E11) * E10 * 4)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
       <c r="H14" s="54"/>
       <c r="I14" s="41">
         <f>(20*(E12+E13+E14) + 20*E17 + 15*E16 + 5*E15)/100</f>
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
       <c r="H16" s="62"/>
       <c r="I16" s="63">
         <f>I13*I14*I15</f>
-        <v>58.204799999999992</v>
+        <v>58.32</v>
       </c>
       <c r="J16" s="68" t="str">
         <f>IF(I16&gt;0, IF(I16&gt;54.9, IF(I16&gt;64.9, IF(I16&gt;74.9, "Critical", "High"), "Medium"), "Low"), "None")</f>
@@ -1724,7 +1724,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,7 +2297,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="35" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
       <c r="K21" s="33"/>
       <c r="L21" s="33">
         <f>IF(L20=B20, B21, IF(L20=C20, C21, IF(L20=D20, D21, IF(L20=E20, E21, IF(L20=F20, F21, IF(L20=G20, G21, IF(L20=H20, H21, IF(L20=I20, I21, IF(L20=J20, J21, IF(L20=K20, K21, 0))))))))))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2354,8 +2354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2568,7 +2568,7 @@
       <c r="J8" s="31"/>
       <c r="K8" s="17"/>
       <c r="L8" s="35" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="33">
         <f>IF(L8=B8, B9, IF(L8=C8, C9, IF(L8=D8, D9, IF(L8=E8, E9, IF(L8=F8, F9, IF(L8=G8, G9, IF(L8=H8, H9, IF(L8=I8, I9, IF(L8=J8, J9, IF(L8=K8, K9, 0))))))))))</f>
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
